--- a/web_poder_judicial_por_estado.xlsx
+++ b/web_poder_judicial_por_estado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesli\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C424CF7-0BBD-46C7-A428-A5461B470E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{77C2F992-454F-4FEF-8552-D3D098B5AA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B1E41010-2857-467D-94D4-9708E6E80282}"/>
   </bookViews>
@@ -558,10 +558,18 @@
   <numFmts count="1">
     <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,14 +592,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A89A5B-0822-4155-8324-EEAE84D6F509}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +931,7 @@
     <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -948,7 +959,7 @@
       <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -968,16 +979,16 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H2">
         <v>1465000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -997,16 +1008,16 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3">
         <v>3822000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1026,16 +1037,16 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H4">
         <v>759000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1055,16 +1066,16 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H5">
         <v>965000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1084,16 +1095,16 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H6">
         <v>3189000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1113,16 +1124,16 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H7">
         <v>830000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1142,16 +1153,16 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H8">
         <v>5602000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1171,16 +1182,16 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H9">
         <v>3806000</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1200,16 +1211,16 @@
       <c r="E10" t="s">
         <v>104</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H10">
         <v>9305000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1229,16 +1240,16 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H11">
         <v>1846000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1258,16 +1269,16 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H12">
         <v>6205000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1287,16 +1298,16 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H13">
         <v>3556000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1316,16 +1327,16 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H14">
         <v>3115000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1345,16 +1356,16 @@
       <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H15">
         <v>8400000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1374,16 +1385,16 @@
       <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H16">
         <v>17102000</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1403,16 +1414,16 @@
       <c r="E17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H17">
         <v>4736000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1432,16 +1443,16 @@
       <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H18">
         <v>2015000</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1461,16 +1472,16 @@
       <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H19">
         <v>1285000</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1490,16 +1501,16 @@
       <c r="E20" t="s">
         <v>116</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H20">
         <v>5663000</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1519,16 +1530,16 @@
       <c r="E21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H21">
         <v>4132000</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1548,16 +1559,16 @@
       <c r="E22" t="s">
         <v>122</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H22">
         <v>6583000</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1577,16 +1588,16 @@
       <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H23">
         <v>2278000</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1606,16 +1617,16 @@
       <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H24">
         <v>1857000</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1635,16 +1646,16 @@
       <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H25">
         <v>2822000</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1664,16 +1675,16 @@
       <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H26">
         <v>3026000</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1693,16 +1704,16 @@
       <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H27">
         <v>3074000</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1722,16 +1733,16 @@
       <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H28">
         <v>2402000</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1751,16 +1762,16 @@
       <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H29">
         <v>3527000</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1780,16 +1791,16 @@
       <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H30">
         <v>1342000</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1809,16 +1820,16 @@
       <c r="E31" t="s">
         <v>91</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H31">
         <v>8112000</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1838,16 +1849,16 @@
       <c r="E32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H32">
         <v>2205000</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>45125</v>
       </c>
     </row>
@@ -1867,21 +1878,87 @@
       <c r="E33" t="s">
         <v>99</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H33">
         <v>1622000</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="2">
         <v>45125</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{C2EAE0DE-E3FC-43B4-AA85-88C55083BA13}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{01315FE0-7EF2-4E3E-9952-AD5C49FA2472}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{85A48107-3008-441D-AB94-EF45AF5155BE}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{C29F54FA-4B4F-4CE0-B06F-5AA76BA306FC}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{D27D740F-3C7D-4263-AFEC-6528B3CBE0EA}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{146B340A-6CD9-4C19-8947-38179058645E}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{7AEB1F6A-145B-4D21-B383-EE6EBE4A3A7C}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{6C91F689-1BC5-493E-ADC0-FADE64004069}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{F74E6B37-C725-4A9D-BFDB-9414A5314A5C}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{BCF6EF24-1298-4F85-8CBB-2C7FBBCE0B7F}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{80C06750-05E7-48CA-ACAF-D7E9C7563CA1}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{4CE7FE8F-056C-44D5-9E0D-4C4F30143872}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{A9A3C270-CC63-4A0B-8899-4E9925191D4B}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{B265BD78-D532-4D57-86AA-C8911F8A8E97}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{7A3D5DFF-74D7-4199-9588-53E035AF00B2}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{C6BB4B12-8607-4A64-B993-504685192279}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{2A7A5AA9-EE55-4C04-AF26-B80E5B7B9F00}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{06CB454A-F4A4-47B8-B2F3-AE77CAFAAE37}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{150C01A5-0F4A-492B-A44E-AF669E216926}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{4D2C2842-3E1C-4629-8BFE-C056D6449C0C}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{31DCBCF8-6F0A-4A95-86D5-54B2143B12F8}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{395F68BF-36B8-4F71-8CD7-F8E74763F11E}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{38668ED3-D89B-4189-B0E7-7DFE3C1EF6E6}"/>
+    <hyperlink ref="F24" r:id="rId24" xr:uid="{784937D3-1B9A-4505-BE4B-92089C07FE51}"/>
+    <hyperlink ref="F25" r:id="rId25" xr:uid="{8DEFD903-D269-48A1-A76B-34B26637D21D}"/>
+    <hyperlink ref="F26" r:id="rId26" xr:uid="{62B546F7-A2B2-4DB0-A97A-185B00722592}"/>
+    <hyperlink ref="F27" r:id="rId27" xr:uid="{01B72D3B-A4CC-4D68-A75F-30AC39B0F8F8}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{20168F76-0A79-43E4-AE3C-F424AAED5455}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{C091ECD0-1790-4BEF-9886-BDD9646845D2}"/>
+    <hyperlink ref="F30" r:id="rId30" xr:uid="{44F41104-B86B-4FB0-86E1-91BC870073F2}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{941282EB-8611-4366-A998-B99D84A3696A}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{BB424C50-2359-4176-865A-521BA69644E2}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{7701AE95-C363-4E25-BB8F-3022C85BCB93}"/>
+    <hyperlink ref="G3" r:id="rId34" xr:uid="{DB55CCAC-F873-4B4E-AC2A-A360DE9FDA33}"/>
+    <hyperlink ref="G4" r:id="rId35" xr:uid="{A62AF79A-D6D7-44F5-9ADE-4C2F6C3F3321}"/>
+    <hyperlink ref="G5" r:id="rId36" xr:uid="{F1F75024-8FB5-4829-8980-D1D9CAA1591E}"/>
+    <hyperlink ref="G6" r:id="rId37" xr:uid="{CD0ED973-85C9-4A05-803E-011F0958F01B}"/>
+    <hyperlink ref="G7" r:id="rId38" xr:uid="{0F3572AD-EF67-41D9-88DF-8C37D26CB1DF}"/>
+    <hyperlink ref="G8" r:id="rId39" xr:uid="{A85C50BA-2718-48D9-AE12-7E38D8FD7746}"/>
+    <hyperlink ref="G9" r:id="rId40" xr:uid="{6FADE18B-69C1-4D44-87F5-BD99B36702B1}"/>
+    <hyperlink ref="G10" r:id="rId41" xr:uid="{AC615EFF-D793-457B-A1DF-5384C68C23CC}"/>
+    <hyperlink ref="G11" r:id="rId42" xr:uid="{9DE6A783-2A9C-415C-BDEA-C6018DD319B6}"/>
+    <hyperlink ref="G12" r:id="rId43" xr:uid="{0903DB1C-C4A3-4199-809F-97F39BCF9B17}"/>
+    <hyperlink ref="G13" r:id="rId44" xr:uid="{F3170CC9-C278-4873-96F4-04EB74BD2203}"/>
+    <hyperlink ref="G14" r:id="rId45" xr:uid="{C371748F-7C78-4E28-B344-FC486934F3E7}"/>
+    <hyperlink ref="G15" r:id="rId46" xr:uid="{D403D182-0FF3-4298-8740-D7B3F7EA011B}"/>
+    <hyperlink ref="G16" r:id="rId47" xr:uid="{F9937FB6-31FA-430D-B2CD-F076B0CC1BAC}"/>
+    <hyperlink ref="G17" r:id="rId48" xr:uid="{DD2956F8-6F85-46CB-BC01-454EDE51B061}"/>
+    <hyperlink ref="G18" r:id="rId49" xr:uid="{67C7CD4A-03D7-4031-859E-833B69770A61}"/>
+    <hyperlink ref="G19" r:id="rId50" xr:uid="{83E03BCB-33C4-4B2E-8EB1-34AE26BE436F}"/>
+    <hyperlink ref="G20" r:id="rId51" xr:uid="{AFD206F4-7FA1-4995-A394-B1F96097AE42}"/>
+    <hyperlink ref="G21" r:id="rId52" xr:uid="{9FCDD659-C358-42F6-87FA-0EAADE1C825C}"/>
+    <hyperlink ref="G22" r:id="rId53" xr:uid="{9782FFEE-100B-4F5D-8756-4AA8C075ABC7}"/>
+    <hyperlink ref="G23" r:id="rId54" xr:uid="{52C02AE1-C3F4-4E40-B43D-D2D3AB6C819F}"/>
+    <hyperlink ref="G24" r:id="rId55" xr:uid="{F0F03733-80F3-4284-BCF8-BE9E1EEE7B6A}"/>
+    <hyperlink ref="G25" r:id="rId56" xr:uid="{1E319693-43AD-42E9-B8F1-29FDDB9C5C65}"/>
+    <hyperlink ref="G26" r:id="rId57" xr:uid="{A8EBD66B-7E5F-4210-9368-C3C77DCB5DAA}"/>
+    <hyperlink ref="G27" r:id="rId58" xr:uid="{8CBE40B1-0B4F-46D8-BE94-45CD5EE2FAFB}"/>
+    <hyperlink ref="G28" r:id="rId59" xr:uid="{31A865CF-7B8A-42FA-8A72-B9A31642608B}"/>
+    <hyperlink ref="G29" r:id="rId60" xr:uid="{A818A00C-C68F-4A98-B1E2-A8AE342D60CC}"/>
+    <hyperlink ref="G30" r:id="rId61" xr:uid="{8D067D34-689E-4734-82E6-3E4FE3FC6661}"/>
+    <hyperlink ref="G31" r:id="rId62" xr:uid="{E32EB7B3-7BEC-4917-8E4A-202DC1944751}"/>
+    <hyperlink ref="G32" r:id="rId63" xr:uid="{B48540BD-AE81-4F65-B429-EEBB59F5F132}"/>
+    <hyperlink ref="G33" r:id="rId64" xr:uid="{F499C890-A61F-4E6F-95AE-76E709BC1603}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>